--- a/quoteList.xlsx
+++ b/quoteList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="1017">
   <si>
     <t xml:space="preserve">quote</t>
   </si>
@@ -46,70 +46,133 @@
     <t xml:space="preserve"> Ernest Hemingway</t>
   </si>
   <si>
+    <t xml:space="preserve">love, life</t>
+  </si>
+  <si>
     <t xml:space="preserve">"No one is saying that you've broken any laws, Mr. President... We're just saying it's a little weird that you didn't have to."</t>
   </si>
   <si>
     <t xml:space="preserve">John Oliver on PRISM</t>
   </si>
   <si>
-    <t xml:space="preserve">My ex-girlfriend had a really weird fetish, where she used to dress up like herself and act like a fucking bitch all the time. - Bo Burnham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"If you run into an asshole in the morning, you ran into an asshole. If you run into assholes all day, you're the asshole." -Raylan Givens, Justified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"A society grows great when old men plant trees whose shade they know they shall never sit in." - Greek proverb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“The reason we struggle with insecurity is because we compare our behind-the-scenes with everyone else's highlight reel.” —Steve Furtick.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"'I'm bored' is a useless thing to say. I mean, you live in a great, big, vast world that you've seen none percent of. Even the inside of your own mind is endless; it goes on forever, inwardly, do you understand? The fact that you're alive is amazing, so you don't get to say'I'm bored.'" Louis C.K.</t>
+    <t xml:space="preserve">life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My ex-girlfriend had a really weird fetish, where she used to dress up like herself and act like a fucking bitch all the time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bo Burnham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"If you run into an asshole in the morning, you ran into an asshole. If you run into assholes all day, you're the asshole."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raylan Givens, Justified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"A society grows great when old men plant trees whose shade they know they shall never sit in."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greek proverb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life, love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“The reason we struggle with insecurity is because we compare our behind-the-scenes with everyone else's highlight reel.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Furtick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"'I'm bored' is a useless thing to say. I mean, you live in a great, big, vast world that you've seen none percent of. Even the inside of your own mind is endless; it goes on forever, inwardly, do you understand? The fact that you're alive is amazing, so you don't get to say'I'm bored.'"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis C.K.</t>
   </si>
   <si>
     <t xml:space="preserve">My friend: "Jurassic Park will forever be my favorite movie because it illustrates perfectly how, when you try to control everything, you will get eaten by a fucking dinosaur."</t>
   </si>
   <si>
-    <t xml:space="preserve">"You'll be fine. You're 25. Feeling unsure and lost is part of your path. Don't avoid it. See what those feelings are showing you and use it. Take a breath. You'll be okay. Even if you don't feel okay all the time." - Louie CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you don't value your life start smoking, you'll die ten years early. Or, start drinking to excess every day, you'll die fifteen years early. Or you could love someone who doesn't love you back, you'll die every day. - Anonymous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"It's not until you're an adult you appreciate how awesome a dog is. Your dreams start dying, somebody cheats on ya, bankers fuck up your 401k, ya know? Then you come home and that dog's looking at you and he's like, 'Dude, you're awesome!' It's like, 'No dude, YOU are fucking awesome!'" - Bill Burr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Being called a traitor by Dick Cheney is the highest honor you can give an American" - Edward Snowden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"How lucky am I to have something that makes saying goodbye hard" Winnie the Pooh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many people die at twenty five and aren’t buried until they are seventy five.” — Benjamin Franklin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I like pot, I enjoy pot, I like to smoke it. But, the one thing I don't like about pot is the subculture it's spawned. I think it's embarrassing and really juvenile and uncreative" - David Cross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"When you're 20 you care what everyone thinks, when you're 40 you stop caring what everyone thinks, when you're 60 you realize no one was ever thinking about you in the first place" -Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"If Tetris has taught me anything it's that errors pile up and accomplishments disappear."- Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Sometime, when you least expect it, you'll realize that someone loved you. And that means that someone can love you again! And that'll make you smile." - Homer Simpson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I'm not upset that you lied to me, I'm upset that from now on I can't believe you” - Friedrich Nietzsche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I am, somehow, less interested in the weight and convolutions of Einstein’s brain than in the near certainty that people of equal talent have lived and died in cotton fields and sweatshops." - Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Normal is getting dressed in clothes that you buy for work and driving through traffic in a car that you are still paying for - in order to get to the job you need to pay for the clothes and the car, and the house you leave vacant all day so you can afford to live in it." - Ellen Goodman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t mistake my kindness for weakness. I am kind to everyone, but when someone is unkind to me, weak is not what you are going to remember about me. - Al Capone</t>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You'll be fine. You're 25. Feeling unsure and lost is part of your path. Don't avoid it. See what those feelings are showing you and use it. Take a breath. You'll be okay. Even if you don't feel okay all the time."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louie CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you don't value your life start smoking, you'll die ten years early. Or, start drinking to excess every day, you'll die fifteen years early. Or you could love someone who doesn't love you back, you'll die every day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anonymous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"It's not until you're an adult you appreciate how awesome a dog is. Your dreams start dying, somebody cheats on ya, bankers fuck up your 401k, ya know? Then you come home and that dog's looking at you and he's like, 'Dude, you're awesome!' It's like, 'No dude, YOU are fucking awesome!'”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Burr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Being called a traitor by Dick Cheney is the highest honor you can give an American"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Snowden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"How lucky am I to have something that makes saying goodbye hard" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winnie the Pooh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many people die at twenty five and aren’t buried until they are seventy five.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Franklin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I like pot, I enjoy pot, I like to smoke it. But, the one thing I don't like about pot is the subculture it's spawned. I think it's embarrassing and really juvenile and uncreative"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"When you're 20 you care what everyone thinks, when you're 40 you stop caring what everyone thinks, when you're 60 you realize no one was ever thinking about you in the first place"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"If Tetris has taught me anything it's that errors pile up and accomplishments disappear."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sometime, when you least expect it, you'll realize that someone loved you. And that means that someone can love you again! And that'll make you smile."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Simpson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I'm not upset that you lied to me, I'm upset that from now on I can't believe you”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I am, somehow, less interested in the weight and convolutions of Einstein’s brain than in the near certainty that people of equal talent have lived and died in cotton fields and sweatshops."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Normal is getting dressed in clothes that you buy for work and driving through traffic in a car that you are still paying for - in order to get to the job you need to pay for the clothes and the car, and the house you leave vacant all day so you can afford to live in it."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellen Goodman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t mistake my kindness for weakness. I am kind to everyone, but when someone is unkind to me, weak is not what you are going to remember about me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Capone</t>
   </si>
   <si>
     <t xml:space="preserve">That moment when you finish a book, look around, and realize that everyone is just carrying on with their lives as though you didn’t just experience emotional trauma at the hands of a paperback. - Unknown</t>
@@ -3252,8 +3315,8 @@
   </sheetPr>
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A910" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A913" activeCellId="0" sqref="A913"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3293,4983 +3356,5058 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="4" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="4" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="4" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="4" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="4" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="4" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="4" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="4" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="4" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="4" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="4" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="4" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="4" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="4" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="4" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="4" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="4" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="4" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="4" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="4" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="4" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="4" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="4" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="4" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="4" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="4" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="4" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="4" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="4" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="4" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="4" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="4" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="4" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="4" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="4" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="4" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="4" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="4" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="4" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="4" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="4" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="4" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="4" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="4" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="4" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="4" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="4" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="4" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="4" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="4" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="4" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="4" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="4" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="4" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="4" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="4" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="4" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="4" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="4" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="4" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="4" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="4" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="4" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="4" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="4" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="4" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="4" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="4" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="4" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="4" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="4" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="4" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="4" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="4" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="4" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="4" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="4" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="4" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="4" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="4" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="4" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="4" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="4" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="4" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="4" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="4" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="4" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="4" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="4" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="4" t="s">
-        <v>645</v>
+        <v>666</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="4" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="4" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="4" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="4" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="4" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="4" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="4" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="4" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="4" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="4" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="4" t="s">
-        <v>657</v>
+        <v>678</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="4" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="4" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="4" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="4" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="4" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="4" t="s">
-        <v>662</v>
+        <v>683</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="4" t="s">
-        <v>663</v>
+        <v>684</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="4" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="4" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="4" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="4" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="4" t="s">
-        <v>668</v>
+        <v>689</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="4" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="4" t="s">
-        <v>670</v>
+        <v>691</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="4" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="4" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="4" t="s">
-        <v>673</v>
+        <v>694</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="4" t="s">
-        <v>674</v>
+        <v>695</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="4" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="4" t="s">
-        <v>676</v>
+        <v>697</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="4" t="s">
-        <v>677</v>
+        <v>698</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="4" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="4" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="4" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="4" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="4" t="s">
-        <v>682</v>
+        <v>703</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="4" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="4" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="4" t="s">
-        <v>685</v>
+        <v>706</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="4" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="4" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="4" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="4" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="4" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="4" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="4" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="4" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="4" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="4" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="4" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="4" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="4" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="4" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="4" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="4" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="4" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="4" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="4" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="4" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="4" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="4" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="4" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="4" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="4" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="4" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="4" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="4" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="4" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="4" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="4" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="4" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="4" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="4" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="4" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="4" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="4" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="4" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="4" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="4" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="4" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="4" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="4" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="4" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="4" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="4" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="4" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="4" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="4" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="4" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="4" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="4" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="4" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="4" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="4" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="4" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="4" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="4" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="4" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="4" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="4" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="4" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="4" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="4" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="4" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="4" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="4" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="4" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="4" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="4" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="4" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="4" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="4" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="4" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="4" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="4" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="4" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="4" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="4" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="4" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="4" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="4" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="4" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="4" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="4" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="4" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="4" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="4" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="4" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="4" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="4" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="4" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="4" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="4" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="4" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="4" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="4" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="4" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="4" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="4" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="4" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="4" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="4" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="4" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="4" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="4" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="4" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="4" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="4" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="4" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="4" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="4" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="4" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="4" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="4" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="4" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="4" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="4" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="4" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="4" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="4" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="4" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="4" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="4" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="4" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="4" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="4" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="4" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="4" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="4" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="4" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="4" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="4" t="s">
-        <v>817</v>
+        <v>838</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="4" t="s">
-        <v>818</v>
+        <v>839</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="4" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="4" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="4" t="s">
-        <v>821</v>
+        <v>842</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="4" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="4" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="4" t="s">
-        <v>824</v>
+        <v>845</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="4" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="4" t="s">
-        <v>826</v>
+        <v>847</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="4" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="4" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="4" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="4" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="4" t="s">
-        <v>831</v>
+        <v>852</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="4" t="s">
-        <v>832</v>
+        <v>853</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="4" t="s">
-        <v>833</v>
+        <v>854</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="4" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="4" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="4" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="4" t="s">
-        <v>837</v>
+        <v>858</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="4" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="4" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="4" t="s">
-        <v>840</v>
+        <v>861</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="4" t="s">
-        <v>841</v>
+        <v>862</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="4" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="4" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="4" t="s">
-        <v>844</v>
+        <v>865</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="4" t="s">
-        <v>845</v>
+        <v>866</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="4" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="4" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="4" t="s">
-        <v>848</v>
+        <v>869</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="4" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="4" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="4" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="4" t="s">
-        <v>852</v>
+        <v>873</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="4" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="4" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="4" t="s">
-        <v>855</v>
+        <v>876</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="4" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="4" t="s">
-        <v>857</v>
+        <v>878</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="4" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="4" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="4" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="4" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="4" t="s">
-        <v>862</v>
+        <v>883</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="4" t="s">
-        <v>863</v>
+        <v>884</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="4" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="4" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="4" t="s">
-        <v>866</v>
+        <v>887</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="4" t="s">
-        <v>867</v>
+        <v>888</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="4" t="s">
-        <v>868</v>
+        <v>889</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="4" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="4" t="s">
-        <v>870</v>
+        <v>891</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="4" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="4" t="s">
-        <v>872</v>
+        <v>893</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="4" t="s">
-        <v>873</v>
+        <v>894</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="4" t="s">
-        <v>874</v>
+        <v>895</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="4" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="4" t="s">
-        <v>876</v>
+        <v>897</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="4" t="s">
-        <v>877</v>
+        <v>898</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="4" t="s">
-        <v>878</v>
+        <v>899</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="4" t="s">
-        <v>879</v>
+        <v>900</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="4" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="4" t="s">
-        <v>881</v>
+        <v>902</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="4" t="s">
-        <v>882</v>
+        <v>903</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="4" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="4" t="s">
-        <v>884</v>
+        <v>905</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="4" t="s">
-        <v>885</v>
+        <v>906</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="4" t="s">
-        <v>886</v>
+        <v>907</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="4" t="s">
-        <v>887</v>
+        <v>908</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="4" t="s">
-        <v>888</v>
+        <v>909</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="4" t="s">
-        <v>889</v>
+        <v>910</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="4" t="s">
-        <v>890</v>
+        <v>911</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="4" t="s">
-        <v>891</v>
+        <v>912</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="4" t="s">
-        <v>892</v>
+        <v>913</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="4" t="s">
-        <v>893</v>
+        <v>914</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="4" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="4" t="s">
-        <v>895</v>
+        <v>916</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="4" t="s">
-        <v>896</v>
+        <v>917</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="4" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="4" t="s">
-        <v>898</v>
+        <v>919</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="4" t="s">
-        <v>899</v>
+        <v>920</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="4" t="s">
-        <v>900</v>
+        <v>921</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="4" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="4" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="4" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="4" t="s">
-        <v>903</v>
+        <v>924</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="4" t="s">
-        <v>904</v>
+        <v>925</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="4" t="s">
-        <v>905</v>
+        <v>926</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="4" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="4" t="s">
-        <v>907</v>
+        <v>928</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="4" t="s">
-        <v>908</v>
+        <v>929</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="4" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="4" t="s">
-        <v>910</v>
+        <v>931</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="4" t="s">
-        <v>911</v>
+        <v>932</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="4" t="s">
-        <v>912</v>
+        <v>933</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="4" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="4" t="s">
-        <v>914</v>
+        <v>935</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="4" t="s">
-        <v>915</v>
+        <v>936</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="4" t="s">
-        <v>916</v>
+        <v>937</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="4" t="s">
-        <v>917</v>
+        <v>938</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="4" t="s">
-        <v>918</v>
+        <v>939</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="4" t="s">
-        <v>919</v>
+        <v>940</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="4" t="s">
-        <v>920</v>
+        <v>941</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="4" t="s">
-        <v>921</v>
+        <v>942</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="4" t="s">
-        <v>922</v>
+        <v>943</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="4" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="4" t="s">
-        <v>924</v>
+        <v>945</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="4" t="s">
-        <v>925</v>
+        <v>946</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="4" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="4" t="s">
-        <v>927</v>
+        <v>948</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="4" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="4" t="s">
-        <v>928</v>
+        <v>949</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="4" t="s">
-        <v>929</v>
+        <v>950</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="4" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="4" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="4" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="4" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="4" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4" t="s">
-        <v>935</v>
+        <v>956</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="4" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="4" t="s">
-        <v>937</v>
+        <v>958</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="4" t="s">
-        <v>938</v>
+        <v>959</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="4" t="s">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="4" t="s">
-        <v>940</v>
+        <v>961</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="4" t="s">
-        <v>941</v>
+        <v>962</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="4" t="s">
-        <v>942</v>
+        <v>963</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="4" t="s">
-        <v>943</v>
+        <v>964</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="4" t="s">
-        <v>944</v>
+        <v>965</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="4" t="s">
-        <v>945</v>
+        <v>966</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="4" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="4" t="s">
-        <v>947</v>
+        <v>968</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="4" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="4" t="s">
-        <v>949</v>
+        <v>970</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="4" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="4" t="s">
-        <v>951</v>
+        <v>972</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="4" t="s">
-        <v>952</v>
+        <v>973</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="4" t="s">
-        <v>953</v>
+        <v>974</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="4" t="s">
-        <v>954</v>
+        <v>975</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="4" t="s">
-        <v>955</v>
+        <v>976</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="4" t="s">
-        <v>956</v>
+        <v>977</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="4" t="s">
-        <v>957</v>
+        <v>978</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="4" t="s">
-        <v>958</v>
+        <v>979</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="4" t="s">
-        <v>959</v>
+        <v>980</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="4" t="s">
-        <v>960</v>
+        <v>981</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="4" t="s">
-        <v>961</v>
+        <v>982</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="4" t="s">
-        <v>962</v>
+        <v>983</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="4" t="s">
-        <v>963</v>
+        <v>984</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="4" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="4" t="s">
-        <v>965</v>
+        <v>986</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="4" t="s">
-        <v>966</v>
+        <v>987</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="4" t="s">
-        <v>967</v>
+        <v>988</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="4" t="s">
-        <v>968</v>
+        <v>989</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="4" t="s">
-        <v>969</v>
+        <v>990</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="4" t="s">
-        <v>970</v>
+        <v>991</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="4" t="s">
-        <v>971</v>
+        <v>992</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="4" t="s">
-        <v>972</v>
+        <v>993</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="4" t="s">
-        <v>973</v>
+        <v>994</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="4" t="s">
-        <v>974</v>
+        <v>995</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="4" t="s">
-        <v>975</v>
+        <v>996</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="4" t="s">
-        <v>976</v>
+        <v>997</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="4" t="s">
-        <v>977</v>
+        <v>998</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="4" t="s">
-        <v>978</v>
+        <v>999</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="4" t="s">
-        <v>979</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="4" t="s">
-        <v>980</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="4" t="s">
-        <v>981</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="4" t="s">
-        <v>982</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="4" t="s">
-        <v>983</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="4" t="s">
-        <v>984</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="4" t="s">
-        <v>985</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="4" t="s">
-        <v>986</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="4" t="s">
-        <v>987</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="4" t="s">
-        <v>988</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="4" t="s">
-        <v>989</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="4" t="s">
-        <v>990</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="4" t="s">
-        <v>991</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="4" t="s">
-        <v>992</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="4" t="s">
-        <v>993</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="4" t="s">
-        <v>994</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="4" t="s">
-        <v>995</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
